--- a/financial_files/excel/BABA.xlsx
+++ b/financial_files/excel/BABA.xlsx
@@ -7,6 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data_scraped" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_statement_api" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="rule1_results" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,6 +31,9 @@
       <b val="1"/>
       <sz val="11"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -38,7 +43,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -61,13 +66,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -165,6 +180,42 @@
     <tableColumn id="13" name="2019"/>
     <tableColumn id="14" name="2020"/>
     <tableColumn id="15" name="TTM"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="financial_statement_api" displayName="financial_statement_api" ref="A1:P23" headerRowCount="1">
+  <autoFilter ref="A1:P23"/>
+  <tableColumns count="16">
+    <tableColumn id="1" name="API Parameter"/>
+    <tableColumn id="2" name="2006"/>
+    <tableColumn id="3" name="2007"/>
+    <tableColumn id="4" name="2008"/>
+    <tableColumn id="5" name="2009"/>
+    <tableColumn id="6" name="2010"/>
+    <tableColumn id="7" name="2011"/>
+    <tableColumn id="8" name="2012"/>
+    <tableColumn id="9" name="2013"/>
+    <tableColumn id="10" name="2014"/>
+    <tableColumn id="11" name="2015"/>
+    <tableColumn id="12" name="2016"/>
+    <tableColumn id="13" name="2017"/>
+    <tableColumn id="14" name="2018"/>
+    <tableColumn id="15" name="2019"/>
+    <tableColumn id="16" name="2020"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="rule1_results" displayName="rule1_results" ref="A1:B55" headerRowCount="1">
+  <autoFilter ref="A1:B55"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Rule #1 Metric"/>
+    <tableColumn id="2" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7146,4 +7197,1900 @@
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>API Parameter</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>revenue</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>174365000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>293526000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>438309000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>567518000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>835765000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1010821000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3172277000</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5553464000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>8505565000</v>
+      </c>
+      <c r="K2" t="n">
+        <v>12214920000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>15554001000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>22958079000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>39615348000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>56145652000</v>
+      </c>
+      <c r="P2" t="n">
+        <v>72603233000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>operating_income</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>32036000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>109164000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>166577000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>157154000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>214673000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>266271000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>847525000</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1820317000</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4084952000</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3736415000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4607009000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>7035973000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>11137968000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>8604121000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>13247489000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pretax_income</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>37253000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>156001000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>199130000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>172306000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>256622000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>336589000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>876356000</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1626927000</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4341881000</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5181611000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12528334000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8707427000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15893089000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>14335881000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>23736913000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>income_tax</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-9135000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-24653000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-30686000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-23932000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-35557000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-67404000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-133386000</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-234418000</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-517747000</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-1028436000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-1299306000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-1998259000</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-2880774000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-2466217000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-2928851000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>eps_diluted</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="P6" t="n">
+        <v>7.96</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>shares_diluted</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4825000000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4859882000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5056348000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5079627000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5072263000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5078820000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2332000000</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2389000000</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2332000000</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2500000000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2562000000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2573000000</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2610125000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2623500000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2668250000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>total_assets</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>53000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>821567000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1154209000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1385096000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1910634000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2409418000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>7478812000</v>
+      </c>
+      <c r="I8" t="n">
+        <v>10262574000</v>
+      </c>
+      <c r="J8" t="n">
+        <v>18070761000</v>
+      </c>
+      <c r="K8" t="n">
+        <v>40944122000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>56014425000</v>
+      </c>
+      <c r="M8" t="n">
+        <v>73514941000</v>
+      </c>
+      <c r="N8" t="n">
+        <v>113515687000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>143785813000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>187021580000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>st_debt</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>13943000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>202654000</v>
+      </c>
+      <c r="H9" t="n">
+        <v>203248000</v>
+      </c>
+      <c r="I9" t="n">
+        <v>876532000</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1678952000</v>
+      </c>
+      <c r="K9" t="n">
+        <v>318982000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>661879000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2160865000</v>
+      </c>
+      <c r="N9" t="n">
+        <v>954190000</v>
+      </c>
+      <c r="O9" t="n">
+        <v>3347189000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>734136000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>lt_debt</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3613927000</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4975133000</v>
+      </c>
+      <c r="K10" t="n">
+        <v>8111275000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8190752000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>11145199000</v>
+      </c>
+      <c r="N10" t="n">
+        <v>18919967000</v>
+      </c>
+      <c r="O10" t="n">
+        <v>16662048000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>17132113000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>total_equity</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-3000</v>
+      </c>
+      <c r="C11" t="n">
+        <v>490361000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>715952000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>734991000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>872681000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1184615000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5446812000</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1763362000</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6593497000</v>
+      </c>
+      <c r="K11" t="n">
+        <v>25232103000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>38374675000</v>
+      </c>
+      <c r="M11" t="n">
+        <v>46580940000</v>
+      </c>
+      <c r="N11" t="n">
+        <v>69085067000</v>
+      </c>
+      <c r="O11" t="n">
+        <v>90672239000</v>
+      </c>
+      <c r="P11" t="n">
+        <v>124000855000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>cf_cfo</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>93413000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>191257000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>231994000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>328116000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>457072000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>343718000</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1469307000</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2329054000</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4273356000</v>
+      </c>
+      <c r="K12" t="n">
+        <v>6606771000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>8740369000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>12018277000</v>
+      </c>
+      <c r="N12" t="n">
+        <v>19914047000</v>
+      </c>
+      <c r="O12" t="n">
+        <v>22493631000</v>
+      </c>
+      <c r="P12" t="n">
+        <v>25725661000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>cfi_ppe_net</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-12326000</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-18929000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-39908000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-59759000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-43244000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-24811000</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-224634000</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-185990000</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-241540000</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-470458000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-831501000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-1596461000</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-3106974000</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-5286432000</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-4636422000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>roic</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-2.7333</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.4806</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.4482</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.5750999999999999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.4174</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.3114</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.5616</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.7935</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.2956</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.4066</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.1564</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.1783</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.1556</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.1992</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>revenue_growth</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.6833</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.4932</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.2947</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.4726</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.2094</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.1383</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.7506</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5315</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.4361</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.2733</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.7255</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.4172</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.2931</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>eps_diluted_growth</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.2222</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.1212</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.4827</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.2325</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4.415</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.8222</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.0401</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.7581</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0.4259</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.5739</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.2825</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.6026</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>total_equity_growth</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>163454.6666</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0265</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.1873</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.5979</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-0.6762</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.7391</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.8268</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.5208</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.2138</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.4831</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.3124</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.3675</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>cfo_growth</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.0474</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.2129</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.4143</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.393</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.248</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.2747</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.5851</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.8348</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.3229</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.6569</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.1295</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.1436</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>fcf_growth</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.1252</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1146</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.397</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.542</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.2293</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.9029</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.7217</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.8813</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5219</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.2888</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.3177</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.6126</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.0238</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.2256</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>fcf</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>81087000</v>
+      </c>
+      <c r="C20" t="n">
+        <v>172328000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>192086000</v>
+      </c>
+      <c r="E20" t="n">
+        <v>268357000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>413828000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>318907000</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1244673000</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2143064000</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4031816000</v>
+      </c>
+      <c r="K20" t="n">
+        <v>6136313000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>7908868000</v>
+      </c>
+      <c r="M20" t="n">
+        <v>10421816000</v>
+      </c>
+      <c r="N20" t="n">
+        <v>16807073000</v>
+      </c>
+      <c r="O20" t="n">
+        <v>17207199000</v>
+      </c>
+      <c r="P20" t="n">
+        <v>21089239000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>book_value_per_share</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.1008</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.1415</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.1446</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.2332</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.3356</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.0345</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.1129</v>
+      </c>
+      <c r="K21" t="n">
+        <v>10.0928</v>
+      </c>
+      <c r="L21" t="n">
+        <v>14.9784</v>
+      </c>
+      <c r="M21" t="n">
+        <v>18.1037</v>
+      </c>
+      <c r="N21" t="n">
+        <v>26.4681</v>
+      </c>
+      <c r="O21" t="n">
+        <v>34.5615</v>
+      </c>
+      <c r="P21" t="n">
+        <v>46.4727</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>market_cap</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>207725420000</v>
+      </c>
+      <c r="L22" t="n">
+        <v>195514687900</v>
+      </c>
+      <c r="M22" t="n">
+        <v>272740888800</v>
+      </c>
+      <c r="N22" t="n">
+        <v>472052032200</v>
+      </c>
+      <c r="O22" t="n">
+        <v>472009097000</v>
+      </c>
+      <c r="P22" t="n">
+        <v>522470520000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>price_to_earnings</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>53.4156</v>
+      </c>
+      <c r="L23" t="n">
+        <v>17.7913</v>
+      </c>
+      <c r="M23" t="n">
+        <v>43.0515</v>
+      </c>
+      <c r="N23" t="n">
+        <v>46.5283</v>
+      </c>
+      <c r="O23" t="n">
+        <v>36.0475</v>
+      </c>
+      <c r="P23" t="n">
+        <v>24.5461</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Rule #1 Metric</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ROIC - 10-year</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>13.17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ROIC - 5-year</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8.53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ROIC - 3-year</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>8.29%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ROIC - 1-year</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>8.19%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 10-year</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>34.76%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 5-year</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>21.92%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 3-year</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>17.77%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 1-year</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>19.92%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>75.05%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>35.72%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>36.92%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>34.46%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>69.78%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>38.71%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>47.91%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>60.16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>56.27%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>42.83%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>46.78%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>29.31%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>48.16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>28.01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>26.49%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>22.56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>49.64%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>31.24%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>28.88%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>14.37%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Debt - Current Long-Term Debt</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>17132113000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Debt - Payoff Possible</t>
+        </is>
+      </c>
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>current_eps</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>9.310000113529091</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>analyst_growth_rate</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.0384</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>equity_growth_rate</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.4553920164976822</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>eps_growth_rate</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.0384</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>future_eps</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>13.57051973163545</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>average_historical_pe</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>22.13803</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>default_pe</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>7.68</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>future_pe</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>7.68</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>future_market_price</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>104.2215915389603</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>sticker_price</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>25.76198347611104</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>margin_of_safety</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>12.88099173805552</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>shortName</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Alibaba Group Holding Limited</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>BABA</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>currency</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>market</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>us_market</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>exchange</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>NYQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>sector</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>industry</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Internet Retail</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>website</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>http://www.alibabagroup.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>marketCap</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>632913330176</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>20727232</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>forwardPE</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>18.16147</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>previousClose</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>232.73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>